--- a/hitting-test.xlsx
+++ b/hitting-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrewster\Documents\teks\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A9B194-F77A-40CE-9B1F-F71CBE7D31AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42633333-2E5E-496B-B50E-34191584FC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBE74BBC-D921-4B14-A7D8-C00DB123B82B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BBE74BBC-D921-4B14-A7D8-C00DB123B82B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -491,7 +491,7 @@
     <col min="1" max="1" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.5" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.5" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -537,7 +537,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.5" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -560,7 +560,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.5" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -629,7 +629,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.5" thickBot="1">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.5" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="44" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -698,18 +698,18 @@
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29.5" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="C10" s="4">
         <v>285</v>
       </c>
       <c r="D10" s="4">
-        <v>827</v>
+        <v>993</v>
       </c>
       <c r="E10" s="4">
         <v>84</v>
@@ -721,7 +721,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.5" thickBot="1">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,7 +744,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="58.5" thickBot="1">
+    <row r="12" spans="1:7" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.5" thickBot="1">
+    <row r="13" spans="1:7" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29.5" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
